--- a/analyse_donnees/DB/df_cleaned_bouake.xlsx
+++ b/analyse_donnees/DB/df_cleaned_bouake.xlsx
@@ -1142,9 +1142,7 @@
       <c r="J3" s="5">
         <v>81291</v>
       </c>
-      <c r="K3" s="7">
-        <v>13.7029702970297</v>
-      </c>
+      <c r="K3" s="8"/>
       <c r="L3" s="5">
         <v>5050</v>
       </c>
@@ -1220,9 +1218,7 @@
       <c r="J4" s="5">
         <v>189</v>
       </c>
-      <c r="K4" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K4" s="8"/>
       <c r="L4" s="7">
         <v>17.2</v>
       </c>
@@ -1298,9 +1294,7 @@
       <c r="J5" s="5">
         <v>24</v>
       </c>
-      <c r="K5" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="7">
         <v>17.2</v>
       </c>
@@ -1376,9 +1370,7 @@
       <c r="J6" s="7">
         <v>21.292</v>
       </c>
-      <c r="K6" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="7">
         <v>17.2</v>
       </c>
@@ -1454,9 +1446,7 @@
       <c r="J7" s="5">
         <v>28</v>
       </c>
-      <c r="K7" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="7">
         <v>17.2</v>
       </c>
@@ -1526,9 +1516,7 @@
       <c r="J8" s="7">
         <v>4.9</v>
       </c>
-      <c r="K8" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="7">
         <v>17.2</v>
       </c>
@@ -1598,9 +1586,7 @@
       <c r="J9" s="7">
         <v>5.25</v>
       </c>
-      <c r="K9" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K9" s="8"/>
       <c r="L9" s="7">
         <v>17.2</v>
       </c>
@@ -1670,9 +1656,7 @@
       <c r="J10" s="7">
         <v>24.5</v>
       </c>
-      <c r="K10" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="7">
         <v>17.2</v>
       </c>
@@ -1744,9 +1728,7 @@
       <c r="J11" s="7">
         <v>4.2</v>
       </c>
-      <c r="K11" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K11" s="8"/>
       <c r="L11" s="7">
         <v>17.2</v>
       </c>
@@ -1816,9 +1798,7 @@
       <c r="J12" s="5">
         <v>28</v>
       </c>
-      <c r="K12" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="7">
         <v>17.2</v>
       </c>
@@ -1894,9 +1874,7 @@
       <c r="J13" s="5">
         <v>21</v>
       </c>
-      <c r="K13" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="7">
         <v>17.2</v>
       </c>
@@ -1972,9 +1950,7 @@
       <c r="J14" s="7">
         <v>62.65</v>
       </c>
-      <c r="K14" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="7">
         <v>17.2</v>
       </c>
@@ -2050,9 +2026,7 @@
       <c r="J15" s="7">
         <v>17.5</v>
       </c>
-      <c r="K15" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="7">
         <v>17.2</v>
       </c>
@@ -2122,9 +2096,7 @@
       <c r="J16" s="5">
         <v>35</v>
       </c>
-      <c r="K16" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="7">
         <v>17.2</v>
       </c>
@@ -2194,9 +2166,7 @@
       <c r="J17" s="5">
         <v>49</v>
       </c>
-      <c r="K17" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K17" s="8"/>
       <c r="L17" s="7">
         <v>17.2</v>
       </c>
@@ -2266,9 +2236,7 @@
       <c r="J18" s="7">
         <v>14.7</v>
       </c>
-      <c r="K18" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="7">
         <v>17.2</v>
       </c>
@@ -2414,9 +2382,7 @@
       <c r="J20" s="7">
         <v>1.7</v>
       </c>
-      <c r="K20" s="7">
-        <v>21.27272727272727</v>
-      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="7">
         <v>1.65</v>
       </c>
@@ -3071,18 +3037,10 @@
       <c r="K30" s="7">
         <v>28.1</v>
       </c>
-      <c r="L30" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="M30" s="5">
-        <v>12</v>
-      </c>
-      <c r="N30" s="5">
-        <v>20</v>
-      </c>
-      <c r="O30" s="5">
-        <v>800</v>
-      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="9"/>
@@ -3732,9 +3690,7 @@
       <c r="J40" s="7">
         <v>48.37</v>
       </c>
-      <c r="K40" s="7">
-        <v>1.040540540540541</v>
-      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="7">
         <v>7.4</v>
       </c>
@@ -4280,9 +4236,7 @@
       <c r="J47" s="7">
         <v>2.1</v>
       </c>
-      <c r="K47" s="7">
-        <v>16.66666666666667</v>
-      </c>
+      <c r="K47" s="8"/>
       <c r="L47" s="7">
         <v>1.89</v>
       </c>
@@ -4802,9 +4756,7 @@
       <c r="J54" s="7">
         <v>3.237</v>
       </c>
-      <c r="K54" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K54" s="8"/>
       <c r="L54" s="7">
         <v>6.5</v>
       </c>
@@ -4876,9 +4828,7 @@
       <c r="J55" s="7">
         <v>1.487</v>
       </c>
-      <c r="K55" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K55" s="8"/>
       <c r="L55" s="7">
         <v>6.5</v>
       </c>
@@ -4948,9 +4898,7 @@
       <c r="J56" s="7">
         <v>24.25</v>
       </c>
-      <c r="K56" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K56" s="8"/>
       <c r="L56" s="7">
         <v>3.92</v>
       </c>
@@ -5020,9 +4968,7 @@
       <c r="J57" s="7">
         <v>16.8</v>
       </c>
-      <c r="K57" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K57" s="8"/>
       <c r="L57" s="7">
         <v>3.92</v>
       </c>
@@ -5086,9 +5032,7 @@
       <c r="J58" s="7">
         <v>1.12</v>
       </c>
-      <c r="K58" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K58" s="8"/>
       <c r="L58" s="7">
         <v>32.45</v>
       </c>
@@ -5152,9 +5096,7 @@
       <c r="J59" s="7">
         <v>2.34</v>
       </c>
-      <c r="K59" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K59" s="8"/>
       <c r="L59" s="7">
         <v>6.5</v>
       </c>
@@ -5222,9 +5164,7 @@
       <c r="J60" s="7">
         <v>2.06</v>
       </c>
-      <c r="K60" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K60" s="8"/>
       <c r="L60" s="7">
         <v>6.5</v>
       </c>
@@ -5292,9 +5232,7 @@
       <c r="J61" s="7">
         <v>1.15</v>
       </c>
-      <c r="K61" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K61" s="8"/>
       <c r="L61" s="7">
         <v>6.5</v>
       </c>
@@ -5362,9 +5300,7 @@
       <c r="J62" s="7">
         <v>25.2</v>
       </c>
-      <c r="K62" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K62" s="8"/>
       <c r="L62" s="7">
         <v>3.92</v>
       </c>
@@ -5436,9 +5372,7 @@
       <c r="J63" s="7">
         <v>43.68</v>
       </c>
-      <c r="K63" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K63" s="8"/>
       <c r="L63" s="7">
         <v>3.92</v>
       </c>
@@ -5510,9 +5444,7 @@
       <c r="J64" s="7">
         <v>4.375</v>
       </c>
-      <c r="K64" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K64" s="8"/>
       <c r="L64" s="7">
         <v>6.5</v>
       </c>
@@ -5584,9 +5516,7 @@
       <c r="J65" s="7">
         <v>1.138</v>
       </c>
-      <c r="K65" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K65" s="8"/>
       <c r="L65" s="7">
         <v>6.5</v>
       </c>
@@ -5656,9 +5586,7 @@
       <c r="J66" s="7">
         <v>0.75</v>
       </c>
-      <c r="K66" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K66" s="8"/>
       <c r="L66" s="7">
         <v>3.92</v>
       </c>
@@ -5730,9 +5658,7 @@
       <c r="J67" s="7">
         <v>19.9</v>
       </c>
-      <c r="K67" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K67" s="8"/>
       <c r="L67" s="7">
         <v>6.5</v>
       </c>
@@ -5800,9 +5726,7 @@
       <c r="J68" s="7">
         <v>20.18</v>
       </c>
-      <c r="K68" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K68" s="8"/>
       <c r="L68" s="7">
         <v>6.5</v>
       </c>
@@ -5872,9 +5796,7 @@
       <c r="J69" s="7">
         <v>2.1</v>
       </c>
-      <c r="K69" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K69" s="8"/>
       <c r="L69" s="7">
         <v>6.5</v>
       </c>
@@ -5948,9 +5870,7 @@
       <c r="J70" s="7">
         <v>170.8</v>
       </c>
-      <c r="K70" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K70" s="8"/>
       <c r="L70" s="7">
         <v>6.5</v>
       </c>
@@ -6020,9 +5940,7 @@
       <c r="J71" s="7">
         <v>4.021</v>
       </c>
-      <c r="K71" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K71" s="8"/>
       <c r="L71" s="7">
         <v>6.5</v>
       </c>
@@ -6092,9 +6010,7 @@
       <c r="J72" s="7">
         <v>1.218</v>
       </c>
-      <c r="K72" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K72" s="8"/>
       <c r="L72" s="7">
         <v>6.5</v>
       </c>
@@ -6164,9 +6080,7 @@
       <c r="J73" s="7">
         <v>6.825</v>
       </c>
-      <c r="K73" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K73" s="8"/>
       <c r="L73" s="7">
         <v>3.92</v>
       </c>
@@ -6236,9 +6150,7 @@
       <c r="J74" s="7">
         <v>41.28</v>
       </c>
-      <c r="K74" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K74" s="8"/>
       <c r="L74" s="7">
         <v>3.92</v>
       </c>
@@ -6308,9 +6220,7 @@
       <c r="J75" s="7">
         <v>60.2</v>
       </c>
-      <c r="K75" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K75" s="8"/>
       <c r="L75" s="7">
         <v>3.92</v>
       </c>
@@ -6380,9 +6290,7 @@
       <c r="J76" s="7">
         <v>2.1</v>
       </c>
-      <c r="K76" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K76" s="8"/>
       <c r="L76" s="7">
         <v>6.5</v>
       </c>
@@ -6450,9 +6358,7 @@
       <c r="J77" s="7">
         <v>0.338</v>
       </c>
-      <c r="K77" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K77" s="8"/>
       <c r="L77" s="7">
         <v>6.5</v>
       </c>
@@ -6520,9 +6426,7 @@
       <c r="J78" s="7">
         <v>6.825</v>
       </c>
-      <c r="K78" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K78" s="8"/>
       <c r="L78" s="7">
         <v>3.92</v>
       </c>
@@ -6590,9 +6494,7 @@
       <c r="J79" s="7">
         <v>1.54</v>
       </c>
-      <c r="K79" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K79" s="8"/>
       <c r="L79" s="7">
         <v>3.92</v>
       </c>
@@ -6660,9 +6562,7 @@
       <c r="J80" s="7">
         <v>1.32</v>
       </c>
-      <c r="K80" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K80" s="8"/>
       <c r="L80" s="7">
         <v>3.92</v>
       </c>
@@ -6730,9 +6630,7 @@
       <c r="J81" s="7">
         <v>31.85</v>
       </c>
-      <c r="K81" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K81" s="8"/>
       <c r="L81" s="7">
         <v>3.92</v>
       </c>
@@ -6804,9 +6702,7 @@
       <c r="J82" s="7">
         <v>0.525</v>
       </c>
-      <c r="K82" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K82" s="8"/>
       <c r="L82" s="7">
         <v>6.5</v>
       </c>
@@ -6870,9 +6766,7 @@
       <c r="J83" s="7">
         <v>0.945</v>
       </c>
-      <c r="K83" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K83" s="8"/>
       <c r="L83" s="7">
         <v>6.5</v>
       </c>
@@ -6936,9 +6830,7 @@
       <c r="J84" s="7">
         <v>0.42</v>
       </c>
-      <c r="K84" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K84" s="8"/>
       <c r="L84" s="7">
         <v>6.5</v>
       </c>
@@ -7002,9 +6894,7 @@
       <c r="J85" s="7">
         <v>5.34</v>
       </c>
-      <c r="K85" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K85" s="8"/>
       <c r="L85" s="7">
         <v>3.2</v>
       </c>
@@ -7068,9 +6958,7 @@
       <c r="J86" s="7">
         <v>13.65</v>
       </c>
-      <c r="K86" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K86" s="8"/>
       <c r="L86" s="7">
         <v>32.45</v>
       </c>
@@ -7202,9 +7090,7 @@
       <c r="J88" s="7">
         <v>2.25</v>
       </c>
-      <c r="K88" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K88" s="8"/>
       <c r="L88" s="7">
         <v>0.9</v>
       </c>
@@ -7270,9 +7156,7 @@
       <c r="J89" s="7">
         <v>2.25</v>
       </c>
-      <c r="K89" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K89" s="8"/>
       <c r="L89" s="7">
         <v>0.9</v>
       </c>
@@ -7340,9 +7224,7 @@
       <c r="J90" s="7">
         <v>0.706</v>
       </c>
-      <c r="K90" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K90" s="8"/>
       <c r="L90" s="7">
         <v>0.9</v>
       </c>
@@ -7965,9 +7847,7 @@
       <c r="G100" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H100" s="7">
-        <v>0.6</v>
-      </c>
+      <c r="H100" s="9"/>
       <c r="I100" s="7">
         <v>0.3</v>
       </c>
@@ -8035,18 +7915,14 @@
       <c r="G101" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H101" s="7">
-        <v>10.4</v>
-      </c>
+      <c r="H101" s="9"/>
       <c r="I101" s="7">
         <v>4.33</v>
       </c>
       <c r="J101" s="7">
         <v>6.07</v>
       </c>
-      <c r="K101" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K101" s="8"/>
       <c r="L101" s="5">
         <v>10</v>
       </c>
@@ -8105,18 +7981,14 @@
       <c r="G102" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H102" s="7">
-        <v>20.8</v>
-      </c>
+      <c r="H102" s="9"/>
       <c r="I102" s="7">
         <v>8.67</v>
       </c>
       <c r="J102" s="7">
         <v>12.13</v>
       </c>
-      <c r="K102" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K102" s="8"/>
       <c r="L102" s="5">
         <v>10</v>
       </c>
@@ -8646,9 +8518,7 @@
       <c r="J110" s="5">
         <v>81291</v>
       </c>
-      <c r="K110" s="7">
-        <v>13.7029702970297</v>
-      </c>
+      <c r="K110" s="8"/>
       <c r="L110" s="5">
         <v>5050</v>
       </c>
@@ -8724,9 +8594,7 @@
       <c r="J111" s="7">
         <v>1.26</v>
       </c>
-      <c r="K111" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K111" s="8"/>
       <c r="L111" s="7">
         <v>17.2</v>
       </c>
@@ -8794,9 +8662,7 @@
       <c r="J112" s="7">
         <v>109.2</v>
       </c>
-      <c r="K112" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K112" s="8"/>
       <c r="L112" s="7">
         <v>17.2</v>
       </c>
@@ -8868,9 +8734,7 @@
       <c r="J113" s="7">
         <v>14.7</v>
       </c>
-      <c r="K113" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K113" s="8"/>
       <c r="L113" s="7">
         <v>17.2</v>
       </c>
@@ -8942,9 +8806,7 @@
       <c r="J114" s="7">
         <v>2.31</v>
       </c>
-      <c r="K114" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K114" s="8"/>
       <c r="L114" s="7">
         <v>17.2</v>
       </c>
@@ -9016,9 +8878,7 @@
       <c r="J115" s="5">
         <v>189</v>
       </c>
-      <c r="K115" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K115" s="8"/>
       <c r="L115" s="7">
         <v>17.2</v>
       </c>
@@ -9094,9 +8954,7 @@
       <c r="J116" s="5">
         <v>24</v>
       </c>
-      <c r="K116" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K116" s="8"/>
       <c r="L116" s="7">
         <v>17.2</v>
       </c>
@@ -9172,9 +9030,7 @@
       <c r="J117" s="7">
         <v>21.292</v>
       </c>
-      <c r="K117" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K117" s="8"/>
       <c r="L117" s="7">
         <v>17.2</v>
       </c>
@@ -9250,9 +9106,7 @@
       <c r="J118" s="7">
         <v>24.5</v>
       </c>
-      <c r="K118" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K118" s="8"/>
       <c r="L118" s="7">
         <v>17.2</v>
       </c>
@@ -9324,9 +9178,7 @@
       <c r="J119" s="5">
         <v>28</v>
       </c>
-      <c r="K119" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K119" s="8"/>
       <c r="L119" s="7">
         <v>17.2</v>
       </c>
@@ -9402,9 +9254,7 @@
       <c r="J120" s="5">
         <v>21</v>
       </c>
-      <c r="K120" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K120" s="8"/>
       <c r="L120" s="7">
         <v>17.2</v>
       </c>
@@ -9480,9 +9330,7 @@
       <c r="J121" s="7">
         <v>62.65</v>
       </c>
-      <c r="K121" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K121" s="8"/>
       <c r="L121" s="7">
         <v>17.2</v>
       </c>
@@ -10188,9 +10036,7 @@
       <c r="J131" s="7">
         <v>0.245</v>
       </c>
-      <c r="K131" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K131" s="8"/>
       <c r="L131" s="7">
         <v>32.45</v>
       </c>
@@ -11444,9 +11290,7 @@
       <c r="J148" s="7">
         <v>2.1</v>
       </c>
-      <c r="K148" s="7">
-        <v>16.66666666666667</v>
-      </c>
+      <c r="K148" s="8"/>
       <c r="L148" s="7">
         <v>1.89</v>
       </c>
@@ -11966,9 +11810,7 @@
       <c r="J155" s="7">
         <v>0.525</v>
       </c>
-      <c r="K155" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K155" s="8"/>
       <c r="L155" s="7">
         <v>3.92</v>
       </c>
@@ -12034,9 +11876,7 @@
       <c r="J156" s="7">
         <v>0.315</v>
       </c>
-      <c r="K156" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K156" s="8"/>
       <c r="L156" s="7">
         <v>3.92</v>
       </c>
@@ -12102,9 +11942,7 @@
       <c r="J157" s="7">
         <v>1.027</v>
       </c>
-      <c r="K157" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K157" s="8"/>
       <c r="L157" s="7">
         <v>6.5</v>
       </c>
@@ -12176,9 +12014,7 @@
       <c r="J158" s="7">
         <v>1.027</v>
       </c>
-      <c r="K158" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K158" s="8"/>
       <c r="L158" s="7">
         <v>6.5</v>
       </c>
@@ -12250,9 +12086,7 @@
       <c r="J159" s="7">
         <v>3.57</v>
       </c>
-      <c r="K159" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K159" s="8"/>
       <c r="L159" s="7">
         <v>32.45</v>
       </c>
@@ -12320,9 +12154,7 @@
       <c r="J160" s="7">
         <v>1.82</v>
       </c>
-      <c r="K160" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K160" s="8"/>
       <c r="L160" s="7">
         <v>32.45</v>
       </c>
@@ -12390,9 +12222,7 @@
       <c r="J161" s="7">
         <v>1.365</v>
       </c>
-      <c r="K161" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K161" s="8"/>
       <c r="L161" s="7">
         <v>6.5</v>
       </c>
@@ -12458,9 +12288,7 @@
       <c r="J162" s="7">
         <v>1.89</v>
       </c>
-      <c r="K162" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K162" s="8"/>
       <c r="L162" s="7">
         <v>6.5</v>
       </c>
@@ -12534,9 +12362,7 @@
       <c r="J163" s="7">
         <v>2.275</v>
       </c>
-      <c r="K163" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K163" s="8"/>
       <c r="L163" s="7">
         <v>6.5</v>
       </c>
@@ -12610,9 +12436,7 @@
       <c r="J164" s="7">
         <v>2.2</v>
       </c>
-      <c r="K164" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K164" s="8"/>
       <c r="L164" s="7">
         <v>32.45</v>
       </c>
@@ -12682,9 +12506,7 @@
       <c r="J165" s="7">
         <v>1.733</v>
       </c>
-      <c r="K165" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K165" s="8"/>
       <c r="L165" s="7">
         <v>6.5</v>
       </c>
@@ -12750,9 +12572,7 @@
       <c r="J166" s="7">
         <v>1.05</v>
       </c>
-      <c r="K166" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K166" s="8"/>
       <c r="L166" s="7">
         <v>6.5</v>
       </c>
@@ -12818,9 +12638,7 @@
       <c r="J167" s="7">
         <v>0.85</v>
       </c>
-      <c r="K167" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K167" s="8"/>
       <c r="L167" s="7">
         <v>3.2</v>
       </c>
@@ -12890,9 +12708,7 @@
       <c r="J168" s="7">
         <v>2.8</v>
       </c>
-      <c r="K168" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K168" s="8"/>
       <c r="L168" s="7">
         <v>3.92</v>
       </c>
@@ -12964,9 +12780,7 @@
       <c r="J169" s="7">
         <v>1.12</v>
       </c>
-      <c r="K169" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K169" s="8"/>
       <c r="L169" s="7">
         <v>3.92</v>
       </c>
@@ -13038,9 +12852,7 @@
       <c r="J170" s="7">
         <v>2.625</v>
       </c>
-      <c r="K170" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K170" s="8"/>
       <c r="L170" s="7">
         <v>6.5</v>
       </c>
@@ -13110,9 +12922,7 @@
       <c r="J171" s="7">
         <v>4.375</v>
       </c>
-      <c r="K171" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K171" s="8"/>
       <c r="L171" s="7">
         <v>6.5</v>
       </c>
@@ -13182,9 +12992,7 @@
       <c r="J172" s="7">
         <v>17.81</v>
       </c>
-      <c r="K172" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K172" s="8"/>
       <c r="L172" s="7">
         <v>3.92</v>
       </c>
@@ -13254,9 +13062,7 @@
       <c r="J173" s="7">
         <v>3.237</v>
       </c>
-      <c r="K173" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K173" s="8"/>
       <c r="L173" s="7">
         <v>6.5</v>
       </c>
@@ -13328,9 +13134,7 @@
       <c r="J174" s="7">
         <v>2.34</v>
       </c>
-      <c r="K174" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K174" s="8"/>
       <c r="L174" s="7">
         <v>6.5</v>
       </c>
@@ -13398,9 +13202,7 @@
       <c r="J175" s="7">
         <v>2.06</v>
       </c>
-      <c r="K175" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K175" s="8"/>
       <c r="L175" s="7">
         <v>6.5</v>
       </c>
@@ -13468,9 +13270,7 @@
       <c r="J176" s="7">
         <v>1.15</v>
       </c>
-      <c r="K176" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K176" s="8"/>
       <c r="L176" s="7">
         <v>6.5</v>
       </c>
@@ -13538,9 +13338,7 @@
       <c r="J177" s="7">
         <v>1.138</v>
       </c>
-      <c r="K177" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K177" s="8"/>
       <c r="L177" s="7">
         <v>6.5</v>
       </c>
@@ -13610,9 +13408,7 @@
       <c r="J178" s="7">
         <v>0.75</v>
       </c>
-      <c r="K178" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K178" s="8"/>
       <c r="L178" s="7">
         <v>3.92</v>
       </c>
@@ -13684,9 +13480,7 @@
       <c r="J179" s="7">
         <v>19.9</v>
       </c>
-      <c r="K179" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K179" s="8"/>
       <c r="L179" s="7">
         <v>6.5</v>
       </c>
@@ -13754,9 +13548,7 @@
       <c r="J180" s="7">
         <v>20.18</v>
       </c>
-      <c r="K180" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K180" s="8"/>
       <c r="L180" s="7">
         <v>6.5</v>
       </c>
@@ -13826,9 +13618,7 @@
       <c r="J181" s="7">
         <v>31.85</v>
       </c>
-      <c r="K181" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K181" s="8"/>
       <c r="L181" s="7">
         <v>3.92</v>
       </c>
@@ -13900,9 +13690,7 @@
       <c r="J182" s="7">
         <v>0.21</v>
       </c>
-      <c r="K182" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K182" s="8"/>
       <c r="L182" s="7">
         <v>3.92</v>
       </c>
@@ -13970,9 +13758,7 @@
       <c r="J183" s="7">
         <v>4.5</v>
       </c>
-      <c r="K183" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K183" s="8"/>
       <c r="L183" s="7">
         <v>0.9</v>
       </c>
@@ -14038,9 +13824,7 @@
       <c r="J184" s="7">
         <v>2.25</v>
       </c>
-      <c r="K184" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K184" s="8"/>
       <c r="L184" s="7">
         <v>0.9</v>
       </c>
@@ -14108,9 +13892,7 @@
       <c r="J185" s="7">
         <v>1.41</v>
       </c>
-      <c r="K185" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K185" s="8"/>
       <c r="L185" s="7">
         <v>0.9</v>
       </c>
@@ -14180,9 +13962,7 @@
       <c r="J186" s="7">
         <v>0.353</v>
       </c>
-      <c r="K186" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K186" s="8"/>
       <c r="L186" s="7">
         <v>0.9</v>
       </c>
@@ -14248,9 +14028,7 @@
       <c r="J187" s="7">
         <v>1.41</v>
       </c>
-      <c r="K187" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K187" s="8"/>
       <c r="L187" s="7">
         <v>0.9</v>
       </c>
@@ -16522,9 +16300,7 @@
       <c r="J220" s="7">
         <v>2.1</v>
       </c>
-      <c r="K220" s="7">
-        <v>16.66666666666667</v>
-      </c>
+      <c r="K220" s="8"/>
       <c r="L220" s="7">
         <v>1.89</v>
       </c>
@@ -16672,9 +16448,7 @@
       <c r="J222" s="7">
         <v>1.05</v>
       </c>
-      <c r="K222" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K222" s="8"/>
       <c r="L222" s="7">
         <v>3.92</v>
       </c>
@@ -16742,9 +16516,7 @@
       <c r="J223" s="7">
         <v>1.05</v>
       </c>
-      <c r="K223" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K223" s="8"/>
       <c r="L223" s="7">
         <v>3.92</v>
       </c>
@@ -16812,9 +16584,7 @@
       <c r="J224" s="5">
         <v>14</v>
       </c>
-      <c r="K224" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K224" s="8"/>
       <c r="L224" s="7">
         <v>6.5</v>
       </c>
@@ -16882,9 +16652,7 @@
       <c r="J225" s="5">
         <v>14</v>
       </c>
-      <c r="K225" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K225" s="8"/>
       <c r="L225" s="7">
         <v>6.5</v>
       </c>
@@ -16952,9 +16720,7 @@
       <c r="J226" s="7">
         <v>1.225</v>
       </c>
-      <c r="K226" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K226" s="8"/>
       <c r="L226" s="7">
         <v>6.5</v>
       </c>
@@ -17022,9 +16788,7 @@
       <c r="J227" s="7">
         <v>1.027</v>
       </c>
-      <c r="K227" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K227" s="8"/>
       <c r="L227" s="7">
         <v>6.5</v>
       </c>
@@ -17096,9 +16860,7 @@
       <c r="J228" s="7">
         <v>1.027</v>
       </c>
-      <c r="K228" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K228" s="8"/>
       <c r="L228" s="7">
         <v>6.5</v>
       </c>
@@ -17170,9 +16932,7 @@
       <c r="J229" s="7">
         <v>2.8</v>
       </c>
-      <c r="K229" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K229" s="8"/>
       <c r="L229" s="7">
         <v>3.92</v>
       </c>
@@ -17240,9 +17000,7 @@
       <c r="J230" s="7">
         <v>15.59</v>
       </c>
-      <c r="K230" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K230" s="8"/>
       <c r="L230" s="7">
         <v>3.92</v>
       </c>
@@ -17310,9 +17068,7 @@
       <c r="J231" s="7">
         <v>3.92</v>
       </c>
-      <c r="K231" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K231" s="8"/>
       <c r="L231" s="7">
         <v>3.92</v>
       </c>
@@ -17378,9 +17134,7 @@
       <c r="J232" s="7">
         <v>10.5</v>
       </c>
-      <c r="K232" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K232" s="8"/>
       <c r="L232" s="7">
         <v>3.92</v>
       </c>
@@ -17448,9 +17202,7 @@
       <c r="J233" s="7">
         <v>4.55</v>
       </c>
-      <c r="K233" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K233" s="8"/>
       <c r="L233" s="7">
         <v>3.2</v>
       </c>
@@ -17518,9 +17270,7 @@
       <c r="J234" s="7">
         <v>6.825</v>
       </c>
-      <c r="K234" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K234" s="8"/>
       <c r="L234" s="7">
         <v>32.45</v>
       </c>
@@ -17588,9 +17338,7 @@
       <c r="J235" s="5">
         <v>63</v>
       </c>
-      <c r="K235" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K235" s="8"/>
       <c r="L235" s="7">
         <v>32.45</v>
       </c>
@@ -17658,9 +17406,7 @@
       <c r="J236" s="7">
         <v>9.1</v>
       </c>
-      <c r="K236" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K236" s="8"/>
       <c r="L236" s="7">
         <v>3.92</v>
       </c>
@@ -17728,9 +17474,7 @@
       <c r="J237" s="7">
         <v>9.1</v>
       </c>
-      <c r="K237" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K237" s="8"/>
       <c r="L237" s="7">
         <v>3.92</v>
       </c>
@@ -17798,9 +17542,7 @@
       <c r="J238" s="7">
         <v>13.125</v>
       </c>
-      <c r="K238" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K238" s="8"/>
       <c r="L238" s="7">
         <v>3.92</v>
       </c>
@@ -17868,9 +17610,7 @@
       <c r="J239" s="7">
         <v>9.45</v>
       </c>
-      <c r="K239" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K239" s="8"/>
       <c r="L239" s="7">
         <v>3.92</v>
       </c>
@@ -17938,9 +17678,7 @@
       <c r="J240" s="5">
         <v>63</v>
       </c>
-      <c r="K240" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K240" s="8"/>
       <c r="L240" s="7">
         <v>32.45</v>
       </c>
@@ -18008,9 +17746,7 @@
       <c r="J241" s="7">
         <v>1.75</v>
       </c>
-      <c r="K241" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K241" s="8"/>
       <c r="L241" s="7">
         <v>6.5</v>
       </c>
@@ -18078,9 +17814,7 @@
       <c r="J242" s="7">
         <v>6.2</v>
       </c>
-      <c r="K242" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K242" s="8"/>
       <c r="L242" s="7">
         <v>6.5</v>
       </c>
@@ -18148,9 +17882,7 @@
       <c r="J243" s="7">
         <v>4.9</v>
       </c>
-      <c r="K243" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K243" s="8"/>
       <c r="L243" s="7">
         <v>3.2</v>
       </c>
@@ -18218,9 +17950,7 @@
       <c r="J244" s="7">
         <v>6.825</v>
       </c>
-      <c r="K244" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K244" s="8"/>
       <c r="L244" s="7">
         <v>32.45</v>
       </c>
@@ -18288,9 +18018,7 @@
       <c r="J245" s="5">
         <v>6</v>
       </c>
-      <c r="K245" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K245" s="8"/>
       <c r="L245" s="7">
         <v>3.92</v>
       </c>
@@ -18358,9 +18086,7 @@
       <c r="J246" s="7">
         <v>33.25</v>
       </c>
-      <c r="K246" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K246" s="8"/>
       <c r="L246" s="7">
         <v>6.5</v>
       </c>
@@ -18428,9 +18154,7 @@
       <c r="J247" s="7">
         <v>10.5</v>
       </c>
-      <c r="K247" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K247" s="8"/>
       <c r="L247" s="7">
         <v>3.92</v>
       </c>
@@ -18498,9 +18222,7 @@
       <c r="J248" s="7">
         <v>4.24</v>
       </c>
-      <c r="K248" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K248" s="8"/>
       <c r="L248" s="7">
         <v>6.5</v>
       </c>
@@ -18568,9 +18290,7 @@
       <c r="J249" s="7">
         <v>3.15</v>
       </c>
-      <c r="K249" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K249" s="8"/>
       <c r="L249" s="7">
         <v>3.92</v>
       </c>
@@ -18638,9 +18358,7 @@
       <c r="J250" s="5">
         <v>42</v>
       </c>
-      <c r="K250" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K250" s="8"/>
       <c r="L250" s="7">
         <v>6.5</v>
       </c>
@@ -18708,9 +18426,7 @@
       <c r="J251" s="7">
         <v>2.73</v>
       </c>
-      <c r="K251" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K251" s="8"/>
       <c r="L251" s="7">
         <v>6.5</v>
       </c>
@@ -18778,9 +18494,7 @@
       <c r="J252" s="7">
         <v>20.475</v>
       </c>
-      <c r="K252" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K252" s="8"/>
       <c r="L252" s="7">
         <v>3.92</v>
       </c>
@@ -18848,9 +18562,7 @@
       <c r="J253" s="5">
         <v>21</v>
       </c>
-      <c r="K253" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K253" s="8"/>
       <c r="L253" s="7">
         <v>3.92</v>
       </c>
@@ -18918,9 +18630,7 @@
       <c r="J254" s="5">
         <v>7</v>
       </c>
-      <c r="K254" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K254" s="8"/>
       <c r="L254" s="7">
         <v>3.92</v>
       </c>
@@ -18988,9 +18698,7 @@
       <c r="J255" s="7">
         <v>2.73</v>
       </c>
-      <c r="K255" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K255" s="8"/>
       <c r="L255" s="7">
         <v>3.92</v>
       </c>
@@ -19058,9 +18766,7 @@
       <c r="J256" s="7">
         <v>56.7</v>
       </c>
-      <c r="K256" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K256" s="8"/>
       <c r="L256" s="7">
         <v>3.92</v>
       </c>
@@ -19128,9 +18834,7 @@
       <c r="J257" s="7">
         <v>8.4</v>
       </c>
-      <c r="K257" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K257" s="8"/>
       <c r="L257" s="7">
         <v>3.2</v>
       </c>
@@ -19198,9 +18902,7 @@
       <c r="J258" s="5">
         <v>70</v>
       </c>
-      <c r="K258" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K258" s="8"/>
       <c r="L258" s="7">
         <v>6.5</v>
       </c>
@@ -19268,9 +18970,7 @@
       <c r="J259" s="5">
         <v>1</v>
       </c>
-      <c r="K259" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K259" s="8"/>
       <c r="L259" s="7">
         <v>3.92</v>
       </c>
@@ -19338,9 +19038,7 @@
       <c r="J260" s="7">
         <v>0.35</v>
       </c>
-      <c r="K260" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K260" s="8"/>
       <c r="L260" s="7">
         <v>3.92</v>
       </c>
@@ -19408,9 +19106,7 @@
       <c r="J261" s="7">
         <v>3.92</v>
       </c>
-      <c r="K261" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K261" s="8"/>
       <c r="L261" s="7">
         <v>3.92</v>
       </c>
@@ -19478,9 +19174,7 @@
       <c r="J262" s="7">
         <v>3.57</v>
       </c>
-      <c r="K262" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K262" s="8"/>
       <c r="L262" s="7">
         <v>32.45</v>
       </c>
@@ -19548,9 +19242,7 @@
       <c r="J263" s="7">
         <v>1.82</v>
       </c>
-      <c r="K263" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K263" s="8"/>
       <c r="L263" s="7">
         <v>32.45</v>
       </c>
@@ -19618,9 +19310,7 @@
       <c r="J264" s="7">
         <v>1.89</v>
       </c>
-      <c r="K264" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K264" s="8"/>
       <c r="L264" s="7">
         <v>6.5</v>
       </c>
@@ -19694,9 +19384,7 @@
       <c r="J265" s="7">
         <v>2.275</v>
       </c>
-      <c r="K265" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K265" s="8"/>
       <c r="L265" s="7">
         <v>6.5</v>
       </c>
@@ -19770,9 +19458,7 @@
       <c r="J266" s="7">
         <v>2.2</v>
       </c>
-      <c r="K266" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K266" s="8"/>
       <c r="L266" s="7">
         <v>32.45</v>
       </c>
@@ -19842,9 +19528,7 @@
       <c r="J267" s="5">
         <v>7</v>
       </c>
-      <c r="K267" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K267" s="8"/>
       <c r="L267" s="7">
         <v>3.92</v>
       </c>
@@ -19916,9 +19600,7 @@
       <c r="J268" s="7">
         <v>0.7</v>
       </c>
-      <c r="K268" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K268" s="8"/>
       <c r="L268" s="7">
         <v>6.5</v>
       </c>
@@ -19990,9 +19672,7 @@
       <c r="J269" s="7">
         <v>1.89</v>
       </c>
-      <c r="K269" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K269" s="8"/>
       <c r="L269" s="7">
         <v>3.92</v>
       </c>
@@ -20064,9 +19744,7 @@
       <c r="J270" s="7">
         <v>4.2</v>
       </c>
-      <c r="K270" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K270" s="8"/>
       <c r="L270" s="7">
         <v>3.92</v>
       </c>
@@ -20138,9 +19816,7 @@
       <c r="J271" s="7">
         <v>3.237</v>
       </c>
-      <c r="K271" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K271" s="8"/>
       <c r="L271" s="7">
         <v>6.5</v>
       </c>
@@ -20212,9 +19888,7 @@
       <c r="J272" s="7">
         <v>1.487</v>
       </c>
-      <c r="K272" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K272" s="8"/>
       <c r="L272" s="7">
         <v>6.5</v>
       </c>
@@ -20284,9 +19958,7 @@
       <c r="J273" s="7">
         <v>24.25</v>
       </c>
-      <c r="K273" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K273" s="8"/>
       <c r="L273" s="7">
         <v>3.92</v>
       </c>
@@ -20356,9 +20028,7 @@
       <c r="J274" s="7">
         <v>25.2</v>
       </c>
-      <c r="K274" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K274" s="8"/>
       <c r="L274" s="7">
         <v>3.92</v>
       </c>
@@ -20430,9 +20100,7 @@
       <c r="J275" s="7">
         <v>43.68</v>
       </c>
-      <c r="K275" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K275" s="8"/>
       <c r="L275" s="7">
         <v>3.92</v>
       </c>
@@ -20504,9 +20172,7 @@
       <c r="J276" s="7">
         <v>4.375</v>
       </c>
-      <c r="K276" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K276" s="8"/>
       <c r="L276" s="7">
         <v>6.5</v>
       </c>
@@ -20578,9 +20244,7 @@
       <c r="J277" s="7">
         <v>0.75</v>
       </c>
-      <c r="K277" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K277" s="8"/>
       <c r="L277" s="7">
         <v>3.92</v>
       </c>
@@ -20652,9 +20316,7 @@
       <c r="J278" s="7">
         <v>2.1</v>
       </c>
-      <c r="K278" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K278" s="8"/>
       <c r="L278" s="7">
         <v>6.5</v>
       </c>
@@ -20728,9 +20390,7 @@
       <c r="J279" s="7">
         <v>170.8</v>
       </c>
-      <c r="K279" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K279" s="8"/>
       <c r="L279" s="7">
         <v>6.5</v>
       </c>
@@ -20800,9 +20460,7 @@
       <c r="J280" s="7">
         <v>4.021</v>
       </c>
-      <c r="K280" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K280" s="8"/>
       <c r="L280" s="7">
         <v>6.5</v>
       </c>
@@ -20872,9 +20530,7 @@
       <c r="J281" s="7">
         <v>1.218</v>
       </c>
-      <c r="K281" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K281" s="8"/>
       <c r="L281" s="7">
         <v>6.5</v>
       </c>
@@ -20944,9 +20600,7 @@
       <c r="J282" s="7">
         <v>6.825</v>
       </c>
-      <c r="K282" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K282" s="8"/>
       <c r="L282" s="7">
         <v>3.92</v>
       </c>
@@ -21016,9 +20670,7 @@
       <c r="J283" s="7">
         <v>41.28</v>
       </c>
-      <c r="K283" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K283" s="8"/>
       <c r="L283" s="7">
         <v>3.92</v>
       </c>
@@ -21088,9 +20740,7 @@
       <c r="J284" s="7">
         <v>60.2</v>
       </c>
-      <c r="K284" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K284" s="8"/>
       <c r="L284" s="7">
         <v>3.92</v>
       </c>
@@ -21160,9 +20810,7 @@
       <c r="J285" s="7">
         <v>3.3</v>
       </c>
-      <c r="K285" s="7">
-        <v>24.21052631578947</v>
-      </c>
+      <c r="K285" s="8"/>
       <c r="L285" s="5">
         <v>19</v>
       </c>
@@ -21230,9 +20878,7 @@
       <c r="J286" s="7">
         <v>8.34</v>
       </c>
-      <c r="K286" s="7">
-        <v>24.21052631578947</v>
-      </c>
+      <c r="K286" s="8"/>
       <c r="L286" s="5">
         <v>19</v>
       </c>
@@ -21300,9 +20946,7 @@
       <c r="J287" s="5">
         <v>21</v>
       </c>
-      <c r="K287" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K287" s="8"/>
       <c r="L287" s="7">
         <v>3.92</v>
       </c>
@@ -21370,9 +21014,7 @@
       <c r="J288" s="7">
         <v>1.687</v>
       </c>
-      <c r="K288" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K288" s="8"/>
       <c r="L288" s="7">
         <v>32.45</v>
       </c>
@@ -21510,9 +21152,7 @@
       <c r="J290" s="7">
         <v>1.41</v>
       </c>
-      <c r="K290" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K290" s="8"/>
       <c r="L290" s="7">
         <v>0.9</v>
       </c>
@@ -21582,9 +21222,7 @@
       <c r="J291" s="7">
         <v>7.28</v>
       </c>
-      <c r="K291" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K291" s="8"/>
       <c r="L291" s="5">
         <v>10</v>
       </c>
@@ -21654,9 +21292,7 @@
       <c r="J292" s="5">
         <v>91</v>
       </c>
-      <c r="K292" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K292" s="8"/>
       <c r="L292" s="5">
         <v>10</v>
       </c>
@@ -21726,9 +21362,7 @@
       <c r="J293" s="7">
         <v>1165.5</v>
       </c>
-      <c r="K293" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K293" s="8"/>
       <c r="L293" s="5">
         <v>10</v>
       </c>
@@ -22076,9 +21710,7 @@
       <c r="J298" s="7">
         <v>861.88</v>
       </c>
-      <c r="K298" s="7">
-        <v>0.6333333333333333</v>
-      </c>
+      <c r="K298" s="8"/>
       <c r="L298" s="5">
         <v>12</v>
       </c>
@@ -22148,9 +21780,7 @@
       <c r="J299" s="5">
         <v>81291</v>
       </c>
-      <c r="K299" s="7">
-        <v>13.7029702970297</v>
-      </c>
+      <c r="K299" s="8"/>
       <c r="L299" s="5">
         <v>5050</v>
       </c>
@@ -22226,9 +21856,7 @@
       <c r="J300" s="7">
         <v>7.28</v>
       </c>
-      <c r="K300" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K300" s="8"/>
       <c r="L300" s="7">
         <v>17.2</v>
       </c>
@@ -22296,9 +21924,7 @@
       <c r="J301" s="5">
         <v>6</v>
       </c>
-      <c r="K301" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K301" s="8"/>
       <c r="L301" s="7">
         <v>17.2</v>
       </c>
@@ -22366,9 +21992,7 @@
       <c r="J302" s="7">
         <v>109.2</v>
       </c>
-      <c r="K302" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K302" s="8"/>
       <c r="L302" s="7">
         <v>17.2</v>
       </c>
@@ -22440,9 +22064,7 @@
       <c r="J303" s="7">
         <v>14.7</v>
       </c>
-      <c r="K303" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K303" s="8"/>
       <c r="L303" s="7">
         <v>17.2</v>
       </c>
@@ -22514,9 +22136,7 @@
       <c r="J304" s="7">
         <v>8.33</v>
       </c>
-      <c r="K304" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K304" s="8"/>
       <c r="L304" s="7">
         <v>17.2</v>
       </c>
@@ -22584,9 +22204,7 @@
       <c r="J305" s="7">
         <v>1.4</v>
       </c>
-      <c r="K305" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K305" s="8"/>
       <c r="L305" s="7">
         <v>17.2</v>
       </c>
@@ -22654,9 +22272,7 @@
       <c r="J306" s="7">
         <v>5.929</v>
       </c>
-      <c r="K306" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K306" s="8"/>
       <c r="L306" s="7">
         <v>17.2</v>
       </c>
@@ -22724,9 +22340,7 @@
       <c r="J307" s="7">
         <v>2.31</v>
       </c>
-      <c r="K307" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K307" s="8"/>
       <c r="L307" s="7">
         <v>17.2</v>
       </c>
@@ -22798,9 +22412,7 @@
       <c r="J308" s="5">
         <v>189</v>
       </c>
-      <c r="K308" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K308" s="8"/>
       <c r="L308" s="7">
         <v>17.2</v>
       </c>
@@ -22876,9 +22488,7 @@
       <c r="J309" s="5">
         <v>24</v>
       </c>
-      <c r="K309" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K309" s="8"/>
       <c r="L309" s="7">
         <v>17.2</v>
       </c>
@@ -22954,9 +22564,7 @@
       <c r="J310" s="7">
         <v>21.292</v>
       </c>
-      <c r="K310" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K310" s="8"/>
       <c r="L310" s="7">
         <v>17.2</v>
       </c>
@@ -23032,9 +22640,7 @@
       <c r="J311" s="5">
         <v>28</v>
       </c>
-      <c r="K311" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K311" s="8"/>
       <c r="L311" s="7">
         <v>17.2</v>
       </c>
@@ -23104,9 +22710,7 @@
       <c r="J312" s="7">
         <v>4.9</v>
       </c>
-      <c r="K312" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K312" s="8"/>
       <c r="L312" s="7">
         <v>17.2</v>
       </c>
@@ -23176,9 +22780,7 @@
       <c r="J313" s="7">
         <v>5.25</v>
       </c>
-      <c r="K313" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K313" s="8"/>
       <c r="L313" s="7">
         <v>17.2</v>
       </c>
@@ -23248,9 +22850,7 @@
       <c r="J314" s="7">
         <v>24.5</v>
       </c>
-      <c r="K314" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K314" s="8"/>
       <c r="L314" s="7">
         <v>17.2</v>
       </c>
@@ -23322,9 +22922,7 @@
       <c r="J315" s="7">
         <v>4.2</v>
       </c>
-      <c r="K315" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K315" s="8"/>
       <c r="L315" s="7">
         <v>17.2</v>
       </c>
@@ -23394,9 +22992,7 @@
       <c r="J316" s="5">
         <v>28</v>
       </c>
-      <c r="K316" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K316" s="8"/>
       <c r="L316" s="7">
         <v>17.2</v>
       </c>
@@ -23472,9 +23068,7 @@
       <c r="J317" s="5">
         <v>21</v>
       </c>
-      <c r="K317" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K317" s="8"/>
       <c r="L317" s="7">
         <v>17.2</v>
       </c>
@@ -23550,9 +23144,7 @@
       <c r="J318" s="7">
         <v>62.65</v>
       </c>
-      <c r="K318" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K318" s="8"/>
       <c r="L318" s="7">
         <v>17.2</v>
       </c>
@@ -23628,9 +23220,7 @@
       <c r="J319" s="7">
         <v>17.5</v>
       </c>
-      <c r="K319" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K319" s="8"/>
       <c r="L319" s="7">
         <v>17.2</v>
       </c>
@@ -23700,9 +23290,7 @@
       <c r="J320" s="5">
         <v>35</v>
       </c>
-      <c r="K320" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K320" s="8"/>
       <c r="L320" s="7">
         <v>17.2</v>
       </c>
@@ -23772,9 +23360,7 @@
       <c r="J321" s="5">
         <v>49</v>
       </c>
-      <c r="K321" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K321" s="8"/>
       <c r="L321" s="7">
         <v>17.2</v>
       </c>
@@ -23844,9 +23430,7 @@
       <c r="J322" s="7">
         <v>14.7</v>
       </c>
-      <c r="K322" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K322" s="8"/>
       <c r="L322" s="7">
         <v>17.2</v>
       </c>
@@ -25806,9 +25390,7 @@
       <c r="J349" s="7">
         <v>1.89</v>
       </c>
-      <c r="K349" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K349" s="8"/>
       <c r="L349" s="7">
         <v>6.5</v>
       </c>
@@ -25882,9 +25464,7 @@
       <c r="J350" s="7">
         <v>2.275</v>
       </c>
-      <c r="K350" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K350" s="8"/>
       <c r="L350" s="7">
         <v>6.5</v>
       </c>
@@ -25958,9 +25538,7 @@
       <c r="J351" s="7">
         <v>0.85</v>
       </c>
-      <c r="K351" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K351" s="8"/>
       <c r="L351" s="7">
         <v>3.2</v>
       </c>
@@ -26030,9 +25608,7 @@
       <c r="J352" s="5">
         <v>7</v>
       </c>
-      <c r="K352" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K352" s="8"/>
       <c r="L352" s="7">
         <v>3.92</v>
       </c>
@@ -26104,9 +25680,7 @@
       <c r="J353" s="7">
         <v>1.52</v>
       </c>
-      <c r="K353" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K353" s="8"/>
       <c r="L353" s="7">
         <v>32.45</v>
       </c>
@@ -26172,9 +25746,7 @@
       <c r="J354" s="7">
         <v>0.75</v>
       </c>
-      <c r="K354" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K354" s="8"/>
       <c r="L354" s="7">
         <v>32.45</v>
       </c>
@@ -26240,9 +25812,7 @@
       <c r="J355" s="7">
         <v>0.3</v>
       </c>
-      <c r="K355" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K355" s="8"/>
       <c r="L355" s="7">
         <v>32.45</v>
       </c>
@@ -26308,9 +25878,7 @@
       <c r="J356" s="7">
         <v>2.8</v>
       </c>
-      <c r="K356" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K356" s="8"/>
       <c r="L356" s="7">
         <v>3.92</v>
       </c>
@@ -26382,9 +25950,7 @@
       <c r="J357" s="7">
         <v>0.7</v>
       </c>
-      <c r="K357" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K357" s="8"/>
       <c r="L357" s="7">
         <v>6.5</v>
       </c>
@@ -26456,9 +26022,7 @@
       <c r="J358" s="7">
         <v>1.12</v>
       </c>
-      <c r="K358" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K358" s="8"/>
       <c r="L358" s="7">
         <v>3.92</v>
       </c>
@@ -26530,9 +26094,7 @@
       <c r="J359" s="7">
         <v>1.89</v>
       </c>
-      <c r="K359" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K359" s="8"/>
       <c r="L359" s="7">
         <v>3.92</v>
       </c>
@@ -26604,9 +26166,7 @@
       <c r="J360" s="7">
         <v>4.2</v>
       </c>
-      <c r="K360" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K360" s="8"/>
       <c r="L360" s="7">
         <v>3.92</v>
       </c>
@@ -26678,9 +26238,7 @@
       <c r="J361" s="7">
         <v>12.81</v>
       </c>
-      <c r="K361" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K361" s="8"/>
       <c r="L361" s="7">
         <v>6.5</v>
       </c>
@@ -26746,9 +26304,7 @@
       <c r="J362" s="5">
         <v>5</v>
       </c>
-      <c r="K362" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K362" s="8"/>
       <c r="L362" s="7">
         <v>3.92</v>
       </c>
@@ -26814,9 +26370,7 @@
       <c r="J363" s="5">
         <v>2</v>
       </c>
-      <c r="K363" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K363" s="8"/>
       <c r="L363" s="7">
         <v>3.92</v>
       </c>
@@ -26882,9 +26436,7 @@
       <c r="J364" s="7">
         <v>1.05</v>
       </c>
-      <c r="K364" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K364" s="8"/>
       <c r="L364" s="7">
         <v>3.92</v>
       </c>
@@ -26950,9 +26502,7 @@
       <c r="J365" s="7">
         <v>5.25</v>
       </c>
-      <c r="K365" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K365" s="8"/>
       <c r="L365" s="7">
         <v>3.92</v>
       </c>
@@ -27018,9 +26568,7 @@
       <c r="J366" s="7">
         <v>2.2</v>
       </c>
-      <c r="K366" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K366" s="8"/>
       <c r="L366" s="7">
         <v>3.92</v>
       </c>
@@ -27086,9 +26634,7 @@
       <c r="J367" s="7">
         <v>4.25</v>
       </c>
-      <c r="K367" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K367" s="8"/>
       <c r="L367" s="7">
         <v>32.45</v>
       </c>
@@ -27154,9 +26700,7 @@
       <c r="J368" s="7">
         <v>2.625</v>
       </c>
-      <c r="K368" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K368" s="8"/>
       <c r="L368" s="7">
         <v>6.5</v>
       </c>
@@ -27226,9 +26770,7 @@
       <c r="J369" s="7">
         <v>4.375</v>
       </c>
-      <c r="K369" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K369" s="8"/>
       <c r="L369" s="7">
         <v>6.5</v>
       </c>
@@ -27298,9 +26840,7 @@
       <c r="J370" s="7">
         <v>17.81</v>
       </c>
-      <c r="K370" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K370" s="8"/>
       <c r="L370" s="7">
         <v>3.92</v>
       </c>
@@ -27370,9 +26910,7 @@
       <c r="J371" s="7">
         <v>25.2</v>
       </c>
-      <c r="K371" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K371" s="8"/>
       <c r="L371" s="7">
         <v>3.92</v>
       </c>
@@ -27444,9 +26982,7 @@
       <c r="J372" s="7">
         <v>43.68</v>
       </c>
-      <c r="K372" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K372" s="8"/>
       <c r="L372" s="7">
         <v>3.92</v>
       </c>
@@ -27518,9 +27054,7 @@
       <c r="J373" s="7">
         <v>4.375</v>
       </c>
-      <c r="K373" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K373" s="8"/>
       <c r="L373" s="7">
         <v>6.5</v>
       </c>
@@ -27592,9 +27126,7 @@
       <c r="J374" s="7">
         <v>1.138</v>
       </c>
-      <c r="K374" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K374" s="8"/>
       <c r="L374" s="7">
         <v>6.5</v>
       </c>
@@ -27664,9 +27196,7 @@
       <c r="J375" s="7">
         <v>20.18</v>
       </c>
-      <c r="K375" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K375" s="8"/>
       <c r="L375" s="7">
         <v>6.5</v>
       </c>
@@ -27736,9 +27266,7 @@
       <c r="J376" s="7">
         <v>2.1</v>
       </c>
-      <c r="K376" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K376" s="8"/>
       <c r="L376" s="7">
         <v>6.5</v>
       </c>
@@ -27812,9 +27340,7 @@
       <c r="J377" s="7">
         <v>170.8</v>
       </c>
-      <c r="K377" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K377" s="8"/>
       <c r="L377" s="7">
         <v>6.5</v>
       </c>
@@ -27884,9 +27410,7 @@
       <c r="J378" s="7">
         <v>4.021</v>
       </c>
-      <c r="K378" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K378" s="8"/>
       <c r="L378" s="7">
         <v>6.5</v>
       </c>
@@ -27956,9 +27480,7 @@
       <c r="J379" s="7">
         <v>1.218</v>
       </c>
-      <c r="K379" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K379" s="8"/>
       <c r="L379" s="7">
         <v>6.5</v>
       </c>
@@ -28028,9 +27550,7 @@
       <c r="J380" s="7">
         <v>6.825</v>
       </c>
-      <c r="K380" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K380" s="8"/>
       <c r="L380" s="7">
         <v>3.92</v>
       </c>
@@ -28100,9 +27620,7 @@
       <c r="J381" s="7">
         <v>41.28</v>
       </c>
-      <c r="K381" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K381" s="8"/>
       <c r="L381" s="7">
         <v>3.92</v>
       </c>
@@ -28172,9 +27690,7 @@
       <c r="J382" s="7">
         <v>60.2</v>
       </c>
-      <c r="K382" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K382" s="8"/>
       <c r="L382" s="7">
         <v>3.92</v>
       </c>
@@ -28244,9 +27760,7 @@
       <c r="J383" s="7">
         <v>2.1</v>
       </c>
-      <c r="K383" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K383" s="8"/>
       <c r="L383" s="7">
         <v>6.5</v>
       </c>
@@ -28314,9 +27828,7 @@
       <c r="J384" s="7">
         <v>0.338</v>
       </c>
-      <c r="K384" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K384" s="8"/>
       <c r="L384" s="7">
         <v>6.5</v>
       </c>
@@ -28384,9 +27896,7 @@
       <c r="J385" s="7">
         <v>6.825</v>
       </c>
-      <c r="K385" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K385" s="8"/>
       <c r="L385" s="7">
         <v>3.92</v>
       </c>
@@ -28454,9 +27964,7 @@
       <c r="J386" s="7">
         <v>1.54</v>
       </c>
-      <c r="K386" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K386" s="8"/>
       <c r="L386" s="7">
         <v>3.92</v>
       </c>
@@ -28524,9 +28032,7 @@
       <c r="J387" s="7">
         <v>1.32</v>
       </c>
-      <c r="K387" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K387" s="8"/>
       <c r="L387" s="7">
         <v>3.92</v>
       </c>
@@ -28594,9 +28100,7 @@
       <c r="J388" s="7">
         <v>31.85</v>
       </c>
-      <c r="K388" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K388" s="8"/>
       <c r="L388" s="7">
         <v>3.92</v>
       </c>
@@ -28668,9 +28172,7 @@
       <c r="J389" s="7">
         <v>1.13</v>
       </c>
-      <c r="K389" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K389" s="8"/>
       <c r="L389" s="7">
         <v>32.45</v>
       </c>
@@ -28736,9 +28238,7 @@
       <c r="J390" s="7">
         <v>0.56</v>
       </c>
-      <c r="K390" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K390" s="8"/>
       <c r="L390" s="7">
         <v>32.45</v>
       </c>
@@ -28804,9 +28304,7 @@
       <c r="J391" s="7">
         <v>1.687</v>
       </c>
-      <c r="K391" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K391" s="8"/>
       <c r="L391" s="7">
         <v>32.45</v>
       </c>
@@ -28878,9 +28376,7 @@
       <c r="J392" s="7">
         <v>0.85</v>
       </c>
-      <c r="K392" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K392" s="8"/>
       <c r="L392" s="7">
         <v>3.92</v>
       </c>
@@ -28946,9 +28442,7 @@
       <c r="J393" s="7">
         <v>2.8</v>
       </c>
-      <c r="K393" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K393" s="8"/>
       <c r="L393" s="7">
         <v>3.92</v>
       </c>
@@ -29014,9 +28508,7 @@
       <c r="J394" s="7">
         <v>5.04</v>
       </c>
-      <c r="K394" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K394" s="8"/>
       <c r="L394" s="7">
         <v>32.45</v>
       </c>
@@ -29082,9 +28574,7 @@
       <c r="J395" s="7">
         <v>0.21</v>
       </c>
-      <c r="K395" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K395" s="8"/>
       <c r="L395" s="7">
         <v>3.92</v>
       </c>
@@ -29152,9 +28642,7 @@
       <c r="J396" s="7">
         <v>13.65</v>
       </c>
-      <c r="K396" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K396" s="8"/>
       <c r="L396" s="7">
         <v>32.45</v>
       </c>
@@ -29286,9 +28774,7 @@
       <c r="J398" s="7">
         <v>2.25</v>
       </c>
-      <c r="K398" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K398" s="8"/>
       <c r="L398" s="7">
         <v>0.9</v>
       </c>
@@ -29354,9 +28840,7 @@
       <c r="J399" s="7">
         <v>0.706</v>
       </c>
-      <c r="K399" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K399" s="8"/>
       <c r="L399" s="7">
         <v>0.9</v>
       </c>
@@ -29424,9 +28908,7 @@
       <c r="J400" s="7">
         <v>7.28</v>
       </c>
-      <c r="K400" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K400" s="8"/>
       <c r="L400" s="5">
         <v>10</v>
       </c>
@@ -29496,9 +28978,7 @@
       <c r="J401" s="5">
         <v>91</v>
       </c>
-      <c r="K401" s="7">
-        <v>48.7</v>
-      </c>
+      <c r="K401" s="8"/>
       <c r="L401" s="5">
         <v>10</v>
       </c>
@@ -29568,9 +29048,7 @@
       <c r="J402" s="7">
         <v>0.47</v>
       </c>
-      <c r="K402" s="7">
-        <v>12.87188612099644</v>
-      </c>
+      <c r="K402" s="8"/>
       <c r="L402" s="7">
         <v>14.05</v>
       </c>
@@ -30364,9 +29842,7 @@
       <c r="J414" s="5">
         <v>81291</v>
       </c>
-      <c r="K414" s="7">
-        <v>13.7029702970297</v>
-      </c>
+      <c r="K414" s="8"/>
       <c r="L414" s="5">
         <v>5050</v>
       </c>
@@ -30442,9 +29918,7 @@
       <c r="J415" s="5">
         <v>189</v>
       </c>
-      <c r="K415" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K415" s="8"/>
       <c r="L415" s="7">
         <v>17.2</v>
       </c>
@@ -30520,9 +29994,7 @@
       <c r="J416" s="5">
         <v>24</v>
       </c>
-      <c r="K416" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K416" s="8"/>
       <c r="L416" s="7">
         <v>17.2</v>
       </c>
@@ -30598,9 +30070,7 @@
       <c r="J417" s="7">
         <v>21.292</v>
       </c>
-      <c r="K417" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K417" s="8"/>
       <c r="L417" s="7">
         <v>17.2</v>
       </c>
@@ -30676,9 +30146,7 @@
       <c r="J418" s="5">
         <v>28</v>
       </c>
-      <c r="K418" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K418" s="8"/>
       <c r="L418" s="7">
         <v>17.2</v>
       </c>
@@ -30748,9 +30216,7 @@
       <c r="J419" s="7">
         <v>4.9</v>
       </c>
-      <c r="K419" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K419" s="8"/>
       <c r="L419" s="7">
         <v>17.2</v>
       </c>
@@ -30820,9 +30286,7 @@
       <c r="J420" s="7">
         <v>5.25</v>
       </c>
-      <c r="K420" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K420" s="8"/>
       <c r="L420" s="7">
         <v>17.2</v>
       </c>
@@ -30892,9 +30356,7 @@
       <c r="J421" s="7">
         <v>24.5</v>
       </c>
-      <c r="K421" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K421" s="8"/>
       <c r="L421" s="7">
         <v>17.2</v>
       </c>
@@ -30966,9 +30428,7 @@
       <c r="J422" s="7">
         <v>4.2</v>
       </c>
-      <c r="K422" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K422" s="8"/>
       <c r="L422" s="7">
         <v>17.2</v>
       </c>
@@ -31038,9 +30498,7 @@
       <c r="J423" s="5">
         <v>28</v>
       </c>
-      <c r="K423" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K423" s="8"/>
       <c r="L423" s="7">
         <v>17.2</v>
       </c>
@@ -31116,9 +30574,7 @@
       <c r="J424" s="5">
         <v>21</v>
       </c>
-      <c r="K424" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K424" s="8"/>
       <c r="L424" s="7">
         <v>17.2</v>
       </c>
@@ -31194,9 +30650,7 @@
       <c r="J425" s="7">
         <v>62.65</v>
       </c>
-      <c r="K425" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K425" s="8"/>
       <c r="L425" s="7">
         <v>17.2</v>
       </c>
@@ -31272,9 +30726,7 @@
       <c r="J426" s="7">
         <v>17.5</v>
       </c>
-      <c r="K426" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K426" s="8"/>
       <c r="L426" s="7">
         <v>17.2</v>
       </c>
@@ -31344,9 +30796,7 @@
       <c r="J427" s="5">
         <v>35</v>
       </c>
-      <c r="K427" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K427" s="8"/>
       <c r="L427" s="7">
         <v>17.2</v>
       </c>
@@ -31416,9 +30866,7 @@
       <c r="J428" s="5">
         <v>49</v>
       </c>
-      <c r="K428" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K428" s="8"/>
       <c r="L428" s="7">
         <v>17.2</v>
       </c>
@@ -31488,9 +30936,7 @@
       <c r="J429" s="7">
         <v>14.7</v>
       </c>
-      <c r="K429" s="7">
-        <v>15.41860465116279</v>
-      </c>
+      <c r="K429" s="8"/>
       <c r="L429" s="7">
         <v>17.2</v>
       </c>
@@ -31636,9 +31082,7 @@
       <c r="J431" s="7">
         <v>1.7</v>
       </c>
-      <c r="K431" s="7">
-        <v>21.27272727272727</v>
-      </c>
+      <c r="K431" s="8"/>
       <c r="L431" s="7">
         <v>1.65</v>
       </c>
@@ -32293,18 +31737,10 @@
       <c r="K441" s="7">
         <v>28.1</v>
       </c>
-      <c r="L441" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="M441" s="5">
-        <v>12</v>
-      </c>
-      <c r="N441" s="5">
-        <v>20</v>
-      </c>
-      <c r="O441" s="5">
-        <v>800</v>
-      </c>
+      <c r="L441" s="10"/>
+      <c r="M441" s="10"/>
+      <c r="N441" s="11"/>
+      <c r="O441" s="8"/>
       <c r="P441" s="6"/>
       <c r="Q441" s="6"/>
       <c r="R441" s="9"/>
@@ -32954,9 +32390,7 @@
       <c r="J451" s="7">
         <v>48.37</v>
       </c>
-      <c r="K451" s="7">
-        <v>1.040540540540541</v>
-      </c>
+      <c r="K451" s="8"/>
       <c r="L451" s="7">
         <v>7.4</v>
       </c>
@@ -33502,9 +32936,7 @@
       <c r="J458" s="7">
         <v>2.1</v>
       </c>
-      <c r="K458" s="7">
-        <v>16.66666666666667</v>
-      </c>
+      <c r="K458" s="8"/>
       <c r="L458" s="7">
         <v>1.89</v>
       </c>
@@ -34024,9 +33456,7 @@
       <c r="J465" s="7">
         <v>3.237</v>
       </c>
-      <c r="K465" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K465" s="8"/>
       <c r="L465" s="7">
         <v>6.5</v>
       </c>
@@ -34098,9 +33528,7 @@
       <c r="J466" s="7">
         <v>1.487</v>
       </c>
-      <c r="K466" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K466" s="8"/>
       <c r="L466" s="7">
         <v>6.5</v>
       </c>
@@ -34170,9 +33598,7 @@
       <c r="J467" s="7">
         <v>24.25</v>
       </c>
-      <c r="K467" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K467" s="8"/>
       <c r="L467" s="7">
         <v>3.92</v>
       </c>
@@ -34242,9 +33668,7 @@
       <c r="J468" s="7">
         <v>16.8</v>
       </c>
-      <c r="K468" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K468" s="8"/>
       <c r="L468" s="7">
         <v>3.92</v>
       </c>
@@ -34308,9 +33732,7 @@
       <c r="J469" s="7">
         <v>1.12</v>
       </c>
-      <c r="K469" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K469" s="8"/>
       <c r="L469" s="7">
         <v>32.45</v>
       </c>
@@ -34374,9 +33796,7 @@
       <c r="J470" s="7">
         <v>2.34</v>
       </c>
-      <c r="K470" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K470" s="8"/>
       <c r="L470" s="7">
         <v>6.5</v>
       </c>
@@ -34444,9 +33864,7 @@
       <c r="J471" s="7">
         <v>2.06</v>
       </c>
-      <c r="K471" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K471" s="8"/>
       <c r="L471" s="7">
         <v>6.5</v>
       </c>
@@ -34514,9 +33932,7 @@
       <c r="J472" s="7">
         <v>1.15</v>
       </c>
-      <c r="K472" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K472" s="8"/>
       <c r="L472" s="7">
         <v>6.5</v>
       </c>
@@ -34584,9 +34000,7 @@
       <c r="J473" s="7">
         <v>25.2</v>
       </c>
-      <c r="K473" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K473" s="8"/>
       <c r="L473" s="7">
         <v>3.92</v>
       </c>
@@ -34658,9 +34072,7 @@
       <c r="J474" s="7">
         <v>43.68</v>
       </c>
-      <c r="K474" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K474" s="8"/>
       <c r="L474" s="7">
         <v>3.92</v>
       </c>
@@ -34732,9 +34144,7 @@
       <c r="J475" s="7">
         <v>4.375</v>
       </c>
-      <c r="K475" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K475" s="8"/>
       <c r="L475" s="7">
         <v>6.5</v>
       </c>
@@ -34806,9 +34216,7 @@
       <c r="J476" s="7">
         <v>1.138</v>
       </c>
-      <c r="K476" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K476" s="8"/>
       <c r="L476" s="7">
         <v>6.5</v>
       </c>
@@ -34878,9 +34286,7 @@
       <c r="J477" s="7">
         <v>0.75</v>
       </c>
-      <c r="K477" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K477" s="8"/>
       <c r="L477" s="7">
         <v>3.92</v>
       </c>
@@ -34952,9 +34358,7 @@
       <c r="J478" s="7">
         <v>19.9</v>
       </c>
-      <c r="K478" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K478" s="8"/>
       <c r="L478" s="7">
         <v>6.5</v>
       </c>
@@ -35022,9 +34426,7 @@
       <c r="J479" s="7">
         <v>20.18</v>
       </c>
-      <c r="K479" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K479" s="8"/>
       <c r="L479" s="7">
         <v>6.5</v>
       </c>
@@ -35094,9 +34496,7 @@
       <c r="J480" s="7">
         <v>2.1</v>
       </c>
-      <c r="K480" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K480" s="8"/>
       <c r="L480" s="7">
         <v>6.5</v>
       </c>
@@ -35170,9 +34570,7 @@
       <c r="J481" s="7">
         <v>170.8</v>
       </c>
-      <c r="K481" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K481" s="8"/>
       <c r="L481" s="7">
         <v>6.5</v>
       </c>
@@ -35242,9 +34640,7 @@
       <c r="J482" s="7">
         <v>4.021</v>
       </c>
-      <c r="K482" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K482" s="8"/>
       <c r="L482" s="7">
         <v>6.5</v>
       </c>
@@ -35314,9 +34710,7 @@
       <c r="J483" s="7">
         <v>1.218</v>
       </c>
-      <c r="K483" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K483" s="8"/>
       <c r="L483" s="7">
         <v>6.5</v>
       </c>
@@ -35386,9 +34780,7 @@
       <c r="J484" s="7">
         <v>6.825</v>
       </c>
-      <c r="K484" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K484" s="8"/>
       <c r="L484" s="7">
         <v>3.92</v>
       </c>
@@ -35458,9 +34850,7 @@
       <c r="J485" s="7">
         <v>41.28</v>
       </c>
-      <c r="K485" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K485" s="8"/>
       <c r="L485" s="7">
         <v>3.92</v>
       </c>
@@ -35530,9 +34920,7 @@
       <c r="J486" s="7">
         <v>60.2</v>
       </c>
-      <c r="K486" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K486" s="8"/>
       <c r="L486" s="7">
         <v>3.92</v>
       </c>
@@ -35602,9 +34990,7 @@
       <c r="J487" s="7">
         <v>2.1</v>
       </c>
-      <c r="K487" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K487" s="8"/>
       <c r="L487" s="7">
         <v>6.5</v>
       </c>
@@ -35672,9 +35058,7 @@
       <c r="J488" s="7">
         <v>0.338</v>
       </c>
-      <c r="K488" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K488" s="8"/>
       <c r="L488" s="7">
         <v>6.5</v>
       </c>
@@ -35742,9 +35126,7 @@
       <c r="J489" s="7">
         <v>6.825</v>
       </c>
-      <c r="K489" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K489" s="8"/>
       <c r="L489" s="7">
         <v>3.92</v>
       </c>
@@ -35812,9 +35194,7 @@
       <c r="J490" s="7">
         <v>1.54</v>
       </c>
-      <c r="K490" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K490" s="8"/>
       <c r="L490" s="7">
         <v>3.92</v>
       </c>
@@ -35882,9 +35262,7 @@
       <c r="J491" s="7">
         <v>1.32</v>
       </c>
-      <c r="K491" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K491" s="8"/>
       <c r="L491" s="7">
         <v>3.92</v>
       </c>
@@ -35952,9 +35330,7 @@
       <c r="J492" s="7">
         <v>31.85</v>
       </c>
-      <c r="K492" s="7">
-        <v>7.471938775510204</v>
-      </c>
+      <c r="K492" s="8"/>
       <c r="L492" s="7">
         <v>3.92</v>
       </c>
@@ -36026,9 +35402,7 @@
       <c r="J493" s="7">
         <v>0.525</v>
       </c>
-      <c r="K493" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K493" s="8"/>
       <c r="L493" s="7">
         <v>6.5</v>
       </c>
@@ -36092,9 +35466,7 @@
       <c r="J494" s="7">
         <v>0.945</v>
       </c>
-      <c r="K494" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K494" s="8"/>
       <c r="L494" s="7">
         <v>6.5</v>
       </c>
@@ -36158,9 +35530,7 @@
       <c r="J495" s="7">
         <v>0.42</v>
       </c>
-      <c r="K495" s="7">
-        <v>4.276923076923077</v>
-      </c>
+      <c r="K495" s="8"/>
       <c r="L495" s="7">
         <v>6.5</v>
       </c>
@@ -36224,9 +35594,7 @@
       <c r="J496" s="7">
         <v>5.34</v>
       </c>
-      <c r="K496" s="7">
-        <v>9.15625</v>
-      </c>
+      <c r="K496" s="8"/>
       <c r="L496" s="7">
         <v>3.2</v>
       </c>
@@ -36290,9 +35658,7 @@
       <c r="J497" s="7">
         <v>13.65</v>
       </c>
-      <c r="K497" s="7">
-        <v>10.79815100154083</v>
-      </c>
+      <c r="K497" s="8"/>
       <c r="L497" s="7">
         <v>32.45</v>
       </c>
@@ -36424,9 +35790,7 @@
       <c r="J499" s="7">
         <v>2.25</v>
       </c>
-      <c r="K499" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K499" s="8"/>
       <c r="L499" s="7">
         <v>0.9</v>
       </c>
@@ -36492,9 +35856,7 @@
       <c r="J500" s="7">
         <v>2.25</v>
       </c>
-      <c r="K500" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K500" s="8"/>
       <c r="L500" s="7">
         <v>0.9</v>
       </c>
@@ -36562,9 +35924,7 @@
       <c r="J501" s="7">
         <v>0.706</v>
       </c>
-      <c r="K501" s="7">
-        <v>220.9333333333333</v>
-      </c>
+      <c r="K501" s="8"/>
       <c r="L501" s="7">
         <v>0.9</v>
       </c>
